--- a/Username SM.xlsx
+++ b/Username SM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/d201901_hiroshima-u_ac_jp/Documents/Doctoral Course 2020/Experiments/OOP_Maya/last experiment files/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/d201901_hiroshima-u_ac_jp/Documents/Doctoral Course 2020/Experiments/OOP_Maya/last experiment files/OOP-experiment-data-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{704EC0BF-BC0C-4417-B0E3-96DD437B4728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3371A499-A408-41D9-A0FA-41FC9F70CDC4}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{704EC0BF-BC0C-4417-B0E3-96DD437B4728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3410ACB7-B556-43A2-BF9C-949CF11144AE}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1155" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="240" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summarization" sheetId="6" r:id="rId1"/>
@@ -767,13 +767,14 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D26"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -801,7 +802,7 @@
         <v>1402020057</v>
       </c>
       <c r="D2" t="str">
-        <f>A2</f>
+        <f t="shared" ref="D2:D33" si="0">A2</f>
         <v>stu58</v>
       </c>
       <c r="E2" t="s">
@@ -825,7 +826,7 @@
         <v>1402020080</v>
       </c>
       <c r="D3" t="str">
-        <f>A3</f>
+        <f t="shared" si="0"/>
         <v>stu59</v>
       </c>
     </row>
@@ -840,7 +841,7 @@
         <v>1402020032</v>
       </c>
       <c r="D4" t="str">
-        <f>A4</f>
+        <f t="shared" si="0"/>
         <v>stu60</v>
       </c>
     </row>
@@ -855,7 +856,7 @@
         <v>1402020092</v>
       </c>
       <c r="D5" t="str">
-        <f>A5</f>
+        <f t="shared" si="0"/>
         <v>stu61</v>
       </c>
     </row>
@@ -870,7 +871,7 @@
         <v>1402020116</v>
       </c>
       <c r="D6" t="str">
-        <f>A6</f>
+        <f t="shared" si="0"/>
         <v>stu62</v>
       </c>
     </row>
@@ -885,7 +886,7 @@
         <v>1402020062</v>
       </c>
       <c r="D7" t="str">
-        <f>A7</f>
+        <f t="shared" si="0"/>
         <v>stu63</v>
       </c>
     </row>
@@ -900,7 +901,7 @@
         <v>1402020083</v>
       </c>
       <c r="D8" t="str">
-        <f>A8</f>
+        <f t="shared" si="0"/>
         <v>stu64</v>
       </c>
     </row>
@@ -915,7 +916,7 @@
         <v>1402020008</v>
       </c>
       <c r="D9" t="str">
-        <f>A9</f>
+        <f t="shared" si="0"/>
         <v>stu65</v>
       </c>
       <c r="H9" t="s">
@@ -933,7 +934,7 @@
         <v>1402019045</v>
       </c>
       <c r="D10" t="str">
-        <f>A10</f>
+        <f t="shared" si="0"/>
         <v>stu66</v>
       </c>
       <c r="E10" t="s">
@@ -957,7 +958,7 @@
         <v>1402017084</v>
       </c>
       <c r="D11" t="str">
-        <f>A11</f>
+        <f t="shared" si="0"/>
         <v>stu67</v>
       </c>
     </row>
@@ -972,7 +973,7 @@
         <v>1402020133</v>
       </c>
       <c r="D12" t="str">
-        <f>A12</f>
+        <f t="shared" si="0"/>
         <v>stu68</v>
       </c>
     </row>
@@ -987,7 +988,7 @@
         <v>1402020059</v>
       </c>
       <c r="D13" t="str">
-        <f>A13</f>
+        <f t="shared" si="0"/>
         <v>stu69</v>
       </c>
       <c r="E13" t="s">
@@ -1005,7 +1006,7 @@
         <v>1402020112</v>
       </c>
       <c r="D14" t="str">
-        <f>A14</f>
+        <f t="shared" si="0"/>
         <v>stu70</v>
       </c>
     </row>
@@ -1020,7 +1021,7 @@
         <v>1402020061</v>
       </c>
       <c r="D15" t="str">
-        <f>A15</f>
+        <f t="shared" si="0"/>
         <v>stu71</v>
       </c>
     </row>
@@ -1035,7 +1036,7 @@
         <v>1402020103</v>
       </c>
       <c r="D16" t="str">
-        <f>A16</f>
+        <f t="shared" si="0"/>
         <v>stu72</v>
       </c>
     </row>
@@ -1050,7 +1051,7 @@
         <v>1402019069</v>
       </c>
       <c r="D17" t="str">
-        <f>A17</f>
+        <f t="shared" si="0"/>
         <v>stu73</v>
       </c>
     </row>
@@ -1065,7 +1066,7 @@
         <v>1402020043</v>
       </c>
       <c r="D18" t="str">
-        <f>A18</f>
+        <f t="shared" si="0"/>
         <v>stu74</v>
       </c>
     </row>
@@ -1080,7 +1081,7 @@
         <v>1402019086</v>
       </c>
       <c r="D19" t="str">
-        <f>A19</f>
+        <f t="shared" si="0"/>
         <v>stu75</v>
       </c>
     </row>
@@ -1095,7 +1096,7 @@
         <v>1402020102</v>
       </c>
       <c r="D20" t="str">
-        <f>A20</f>
+        <f t="shared" si="0"/>
         <v>stu76</v>
       </c>
     </row>
@@ -1110,7 +1111,7 @@
         <v>1402020073</v>
       </c>
       <c r="D21" t="str">
-        <f>A21</f>
+        <f t="shared" si="0"/>
         <v>stu77</v>
       </c>
     </row>
@@ -1125,7 +1126,7 @@
         <v>1402020063</v>
       </c>
       <c r="D22" t="str">
-        <f>A22</f>
+        <f t="shared" si="0"/>
         <v>stu78</v>
       </c>
     </row>
@@ -1140,7 +1141,7 @@
         <v>1402020023</v>
       </c>
       <c r="D23" t="str">
-        <f>A23</f>
+        <f t="shared" si="0"/>
         <v>stu79</v>
       </c>
     </row>
@@ -1155,7 +1156,7 @@
         <v>1402020005</v>
       </c>
       <c r="D24" t="str">
-        <f>A24</f>
+        <f t="shared" si="0"/>
         <v>stu80</v>
       </c>
     </row>
@@ -1170,7 +1171,7 @@
         <v>1402019040</v>
       </c>
       <c r="D25" t="str">
-        <f>A25</f>
+        <f t="shared" si="0"/>
         <v>stu81</v>
       </c>
     </row>
@@ -1185,7 +1186,7 @@
         <v>1402020098</v>
       </c>
       <c r="D26" t="str">
-        <f>A26</f>
+        <f t="shared" si="0"/>
         <v>stu82</v>
       </c>
     </row>
@@ -1200,7 +1201,7 @@
         <v>1402019036</v>
       </c>
       <c r="D27" t="str">
-        <f>A27</f>
+        <f t="shared" si="0"/>
         <v>stu83</v>
       </c>
     </row>
@@ -1215,7 +1216,7 @@
         <v>1402019071</v>
       </c>
       <c r="D28" t="str">
-        <f>A28</f>
+        <f t="shared" si="0"/>
         <v>stu84</v>
       </c>
     </row>
@@ -1230,7 +1231,7 @@
         <v>1402020132</v>
       </c>
       <c r="D29" t="str">
-        <f>A29</f>
+        <f t="shared" si="0"/>
         <v>stu85</v>
       </c>
     </row>
@@ -1245,7 +1246,7 @@
         <v>1402020137</v>
       </c>
       <c r="D30" t="str">
-        <f>A30</f>
+        <f t="shared" si="0"/>
         <v>stu86</v>
       </c>
     </row>
@@ -1260,7 +1261,7 @@
         <v>1402020135</v>
       </c>
       <c r="D31" t="str">
-        <f>A31</f>
+        <f t="shared" si="0"/>
         <v>stu87</v>
       </c>
     </row>
@@ -1275,7 +1276,7 @@
         <v>1402019009</v>
       </c>
       <c r="D32" t="str">
-        <f>A32</f>
+        <f t="shared" si="0"/>
         <v>stu88</v>
       </c>
     </row>
@@ -1290,7 +1291,7 @@
         <v>1402020035</v>
       </c>
       <c r="D33" t="str">
-        <f>A33</f>
+        <f t="shared" si="0"/>
         <v>stu89</v>
       </c>
     </row>
@@ -1305,7 +1306,7 @@
         <v>1402019028</v>
       </c>
       <c r="D34" t="str">
-        <f>A34</f>
+        <f t="shared" ref="D34:D58" si="1">A34</f>
         <v>stu90</v>
       </c>
     </row>
@@ -1320,7 +1321,7 @@
         <v>1402020026</v>
       </c>
       <c r="D35" t="str">
-        <f>A35</f>
+        <f t="shared" si="1"/>
         <v>stu91</v>
       </c>
     </row>
@@ -1335,7 +1336,7 @@
         <v>1402019001</v>
       </c>
       <c r="D36" t="str">
-        <f>A36</f>
+        <f t="shared" si="1"/>
         <v>stu92</v>
       </c>
     </row>
@@ -1350,7 +1351,7 @@
         <v>1402020021</v>
       </c>
       <c r="D37" t="str">
-        <f>A37</f>
+        <f t="shared" si="1"/>
         <v>stu93</v>
       </c>
     </row>
@@ -1365,7 +1366,7 @@
         <v>1402018119</v>
       </c>
       <c r="D38" t="str">
-        <f>A38</f>
+        <f t="shared" si="1"/>
         <v>stu94</v>
       </c>
     </row>
@@ -1380,7 +1381,7 @@
         <v>1402020016</v>
       </c>
       <c r="D39" t="str">
-        <f>A39</f>
+        <f t="shared" si="1"/>
         <v>stu95</v>
       </c>
     </row>
@@ -1395,7 +1396,7 @@
         <v>1402020079</v>
       </c>
       <c r="D40" t="str">
-        <f>A40</f>
+        <f t="shared" si="1"/>
         <v>stu96</v>
       </c>
     </row>
@@ -1410,7 +1411,7 @@
         <v>1402018023</v>
       </c>
       <c r="D41" t="str">
-        <f>A41</f>
+        <f t="shared" si="1"/>
         <v>stu97</v>
       </c>
     </row>
@@ -1425,7 +1426,7 @@
         <v>1402020031</v>
       </c>
       <c r="D42" t="str">
-        <f>A42</f>
+        <f t="shared" si="1"/>
         <v>stu98</v>
       </c>
     </row>
@@ -1440,7 +1441,7 @@
         <v>1402020034</v>
       </c>
       <c r="D43" t="str">
-        <f>A43</f>
+        <f t="shared" si="1"/>
         <v>stu99</v>
       </c>
     </row>
@@ -1455,7 +1456,7 @@
         <v>1402020095</v>
       </c>
       <c r="D44" t="str">
-        <f>A44</f>
+        <f t="shared" si="1"/>
         <v>stu100</v>
       </c>
     </row>
@@ -1470,7 +1471,7 @@
         <v>1402020134</v>
       </c>
       <c r="D45" t="str">
-        <f>A45</f>
+        <f t="shared" si="1"/>
         <v>stu101</v>
       </c>
     </row>
@@ -1485,7 +1486,7 @@
         <v>1402017148</v>
       </c>
       <c r="D46" t="str">
-        <f>A46</f>
+        <f t="shared" si="1"/>
         <v>stu102</v>
       </c>
     </row>
@@ -1500,7 +1501,7 @@
         <v>1402020138</v>
       </c>
       <c r="D47" t="str">
-        <f>A47</f>
+        <f t="shared" si="1"/>
         <v>stu103</v>
       </c>
     </row>
@@ -1515,7 +1516,7 @@
         <v>1402017019</v>
       </c>
       <c r="D48" t="str">
-        <f>A48</f>
+        <f t="shared" si="1"/>
         <v>stu104</v>
       </c>
     </row>
@@ -1530,7 +1531,7 @@
         <v>1402019048</v>
       </c>
       <c r="D49" t="str">
-        <f>A49</f>
+        <f t="shared" si="1"/>
         <v>stu105</v>
       </c>
     </row>
@@ -1545,7 +1546,7 @@
         <v>1402019008</v>
       </c>
       <c r="D50" t="str">
-        <f>A50</f>
+        <f t="shared" si="1"/>
         <v>stu106</v>
       </c>
     </row>
@@ -1560,7 +1561,7 @@
         <v>1402018076</v>
       </c>
       <c r="D51" t="str">
-        <f>A51</f>
+        <f t="shared" si="1"/>
         <v>stu107</v>
       </c>
     </row>
@@ -1575,7 +1576,7 @@
         <v>1402018163</v>
       </c>
       <c r="D52" t="str">
-        <f>A52</f>
+        <f t="shared" si="1"/>
         <v>stu108</v>
       </c>
       <c r="J52" t="s">
@@ -1593,7 +1594,7 @@
         <v>1402018229</v>
       </c>
       <c r="D53" t="str">
-        <f>A53</f>
+        <f t="shared" si="1"/>
         <v>stu109</v>
       </c>
     </row>
@@ -1608,7 +1609,7 @@
         <v>1402018221</v>
       </c>
       <c r="D54" t="str">
-        <f>A54</f>
+        <f t="shared" si="1"/>
         <v>stu110</v>
       </c>
     </row>
@@ -1623,7 +1624,7 @@
         <v>1402018173</v>
       </c>
       <c r="D55" t="str">
-        <f>A55</f>
+        <f t="shared" si="1"/>
         <v>stu111</v>
       </c>
     </row>
@@ -1638,7 +1639,7 @@
         <v>1402018185</v>
       </c>
       <c r="D56" t="str">
-        <f>A56</f>
+        <f t="shared" si="1"/>
         <v>stu112</v>
       </c>
     </row>
@@ -1653,7 +1654,7 @@
         <v>1402019043</v>
       </c>
       <c r="D57" t="str">
-        <f>A57</f>
+        <f t="shared" si="1"/>
         <v>stu113</v>
       </c>
     </row>
@@ -1668,7 +1669,7 @@
         <v>1402020075</v>
       </c>
       <c r="D58" t="str">
-        <f>A58</f>
+        <f t="shared" si="1"/>
         <v>stu114</v>
       </c>
     </row>
